--- a/biology/Origine et évolution du vivant/Mesoeucrocodylia/Mesoeucrocodylia.xlsx
+++ b/biology/Origine et évolution du vivant/Mesoeucrocodylia/Mesoeucrocodylia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mesoeucrocodylia  ou mesoeucrocodyliens sont un clade de crocodyliformes qui comprend les Eusuchia et le groupe paraphylétique des Mesosuchia. Le groupe est apparu au début du Jurassique et existe encore de nos jours.
-On pensait depuis longtemps que Mesosuchia était un grade évolutif[1], une hypothèse confirmée par l'analyse phylogénétique de Benton et Clark en 1988, qui ont démontré qu'Eusuchia (qui comprend toutes les espèces vivantes de crocodiliens) était imbriquée dans Mesosuchia. Comme les auteurs n'admettent pas la classification des groupes paraphylétiques, Mesoeucrocodylia a été créé pour remplacer Mesosuchia.
+On pensait depuis longtemps que Mesosuchia était un grade évolutif, une hypothèse confirmée par l'analyse phylogénétique de Benton et Clark en 1988, qui ont démontré qu'Eusuchia (qui comprend toutes les espèces vivantes de crocodiliens) était imbriquée dans Mesosuchia. Comme les auteurs n'admettent pas la classification des groupes paraphylétiques, Mesoeucrocodylia a été créé pour remplacer Mesosuchia.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs caractéristiques anatomiques différencient les Mesoeucrocodylia des autres clades de crocodylomorphes. Par exemple, l'os frontal est fusionné en un os unique. Les Mesoeucrocodylia possèdent une sorte de palais secondaire, formé par l'extension postérieure de la suture des os palatins. L'ouverture otique des membres de ce clade est bloquée en arrière par l'os squamosal[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs caractéristiques anatomiques différencient les Mesoeucrocodylia des autres clades de crocodylomorphes. Par exemple, l'os frontal est fusionné en un os unique. Les Mesoeucrocodylia possèdent une sorte de palais secondaire, formé par l'extension postérieure de la suture des os palatins. L'ouverture otique des membres de ce clade est bloquée en arrière par l'os squamosal.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phylogénie
-Cladograme d'après Larsson et Sues (2007)[3]
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladograme d'après Larsson et Sues (2007)
 </t>
         </is>
       </c>
